--- a/TNT/熊猫棋牌CPS/开站需求表.xlsx
+++ b/TNT/熊猫棋牌CPS/开站需求表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work1\招财猫CPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XLXQP.git\trunk\TNT\熊猫棋牌CPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D1210B-85F6-4998-A834-8C53E4586F8C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC4D837-585A-4E2C-980B-5EEBDF69D7EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -758,6 +758,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -880,6 +882,11 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1496,7 +1503,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
